--- a/train_ko.xlsx
+++ b/train_ko.xlsx
@@ -40,78 +40,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+  <si>
+    <t>오늘은 날씨가 좋아서 친구와 카페에 갔다.</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>AI 모델은 주어진 데이터를 바탕으로 언어 패턴을 학습한다.</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>요즘엔 책을 많이 읽으며 글쓰기 연습을 하고 있다.</t>
+  </si>
+  <si>
+    <t>이 문장은 ChatGPT가 자동으로 생성한 예시 문장입니다.</t>
+  </si>
+  <si>
+    <t>점심으로 먹은 김치찌개가 정말 맛있었다.</t>
+  </si>
+  <si>
+    <t>대규모 언어 모델은 인간의 언어를 통계적으로 예측한다.</t>
+  </si>
+  <si>
+    <t>비 오는 날에는 커피 한 잔이 잘 어울린다.</t>
+  </si>
+  <si>
+    <t>이 글은 인공지능이 작성한 문장으로 실험에 사용됩니다.</t>
+  </si>
+  <si>
+    <t>주말에는 가족과 함께 영화를 봤다.</t>
+  </si>
+  <si>
+    <t>AI 시스템은 자연어 생성(NLG) 기술을 통해 문장을 생성한다.</t>
+  </si>
+  <si>
+    <t>아침 햇살이 따뜻하게 방 안을 비췄다.</t>
+  </si>
+  <si>
+    <t>인공지능은 사람의 문체를 모방할 수 있다.</t>
+  </si>
+  <si>
+    <t>나는 내일 도서관에 가서 공부할 예정이다.</t>
+  </si>
+  <si>
+    <t>이 문장은 GPT 모델이 작성한 예시입니다.</t>
+  </si>
+  <si>
+    <t>어제 본 영화가 생각보다 재미있었다.</t>
+  </si>
+  <si>
+    <t>AI는 주어진 입력에 따라 합리적인 문장을 생성한다.</t>
+  </si>
+  <si>
+    <t>하늘이 맑고 바람이 선선해서 기분이 좋다.</t>
+  </si>
+  <si>
+    <t>인공지능은 대규모 데이터셋에서 언어 구조를 학습한다.</t>
+  </si>
+  <si>
+    <t>친구와 함께 저녁을 먹으며 이야기를 나눴다.</t>
+  </si>
+  <si>
+    <t>이 문장은 OpenAI의 ChatGPT가 생성한 문장입니다.</t>
+  </si>
+  <si>
+    <t>요즘 AI는 너무 발전했어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에 가고 싶다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림 먹고 싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨가 너무 추워서 패딩을 입었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈물이 메말라 달빛과 그림자로 서지 못하는 날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을 계속 간직하고 있으면 반드시 실현할 때가 온다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일이란 오늘의 다른 이름일 뿐이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 문제는 사람들의 마음이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것은 절대로 물리학이나 윤리학의 문제가 아니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life is full of ups and downs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Past is just past.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 오랜만이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 본 연구는 제시된 문제에 대해 체계적인 분석을 수행하는 것을 목표로 한다.</t>
+  </si>
+  <si>
+    <t>해당 개념은 다양한 사례를 통해 실증적으로 검증될 수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이러한 경향은 향후에도 지속될 것으로 예상된다.</t>
+  </si>
+  <si>
+    <t>본 시스템은 사용자 요구를 반영하여 지속적으로 확장될 예정이다.</t>
+  </si>
+  <si>
+    <t>제안된 접근 방식은 다양한 환경에서도 안정적으로 적용된다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 향후 추가 연구를 통해 더 구체적인 개선 방안이 도출될 수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 본 문제는 다양한 요소가 복합적으로 작용한 결과라고 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이러한 접근 방식은 기존 모델의 한계를 극복하는 데 도움을 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종적으로 제안된 방법이 가장 높은 성능을 보였다.</t>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>label</t>
-  </si>
-  <si>
-    <t>오늘은 날씨가 좋아서 친구와 카페에 갔다.</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>AI 모델은 주어진 데이터를 바탕으로 언어 패턴을 학습한다.</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>요즘엔 책을 많이 읽으며 글쓰기 연습을 하고 있다.</t>
-  </si>
-  <si>
-    <t>이 문장은 ChatGPT가 자동으로 생성한 예시 문장입니다.</t>
-  </si>
-  <si>
-    <t>점심으로 먹은 김치찌개가 정말 맛있었다.</t>
-  </si>
-  <si>
-    <t>대규모 언어 모델은 인간의 언어를 통계적으로 예측한다.</t>
-  </si>
-  <si>
-    <t>비 오는 날에는 커피 한 잔이 잘 어울린다.</t>
-  </si>
-  <si>
-    <t>이 글은 인공지능이 작성한 문장으로 실험에 사용됩니다.</t>
-  </si>
-  <si>
-    <t>주말에는 가족과 함께 영화를 봤다.</t>
-  </si>
-  <si>
-    <t>AI 시스템은 자연어 생성(NLG) 기술을 통해 문장을 생성한다.</t>
-  </si>
-  <si>
-    <t>아침 햇살이 따뜻하게 방 안을 비췄다.</t>
-  </si>
-  <si>
-    <t>인공지능은 사람의 문체를 모방할 수 있다.</t>
-  </si>
-  <si>
-    <t>나는 내일 도서관에 가서 공부할 예정이다.</t>
-  </si>
-  <si>
-    <t>이 문장은 GPT 모델이 작성한 예시입니다.</t>
-  </si>
-  <si>
-    <t>어제 본 영화가 생각보다 재미있었다.</t>
-  </si>
-  <si>
-    <t>AI는 주어진 입력에 따라 합리적인 문장을 생성한다.</t>
-  </si>
-  <si>
-    <t>하늘이 맑고 바람이 선선해서 기분이 좋다.</t>
-  </si>
-  <si>
-    <t>인공지능은 대규모 데이터셋에서 언어 구조를 학습한다.</t>
-  </si>
-  <si>
-    <t>친구와 함께 저녁을 먹으며 이야기를 나눴다.</t>
-  </si>
-  <si>
-    <t>이 문장은 OpenAI의 ChatGPT가 생성한 문장입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -448,9 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -460,174 +549,343 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>